--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\deepak\github\mf-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5F7098-E005-4E1E-8806-2046952820D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D2B8D-0F46-4801-A8BD-1A405E486F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="70" windowWidth="11240" windowHeight="14360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Method-1" sheetId="1" r:id="rId1"/>
@@ -2478,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E14EE1-6D0D-4D21-AA56-5ED7A362180E}">
   <dimension ref="B2:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2745,8 +2745,41 @@
       <c r="J18">
         <v>14.07</v>
       </c>
+      <c r="L18">
+        <v>13.82</v>
+      </c>
+      <c r="M18">
+        <v>13.17</v>
+      </c>
+      <c r="N18">
+        <v>13.28</v>
+      </c>
       <c r="O18">
-        <v>13.95</v>
+        <v>14.07</v>
+      </c>
+      <c r="P18">
+        <v>13.52</v>
+      </c>
+      <c r="Q18">
+        <v>13.3</v>
+      </c>
+      <c r="R18">
+        <v>13.22</v>
+      </c>
+      <c r="S18">
+        <v>12.81</v>
+      </c>
+      <c r="T18">
+        <v>13.56</v>
+      </c>
+      <c r="U18">
+        <v>13.16</v>
+      </c>
+      <c r="V18">
+        <v>12.73</v>
+      </c>
+      <c r="W18">
+        <v>12.29</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.35">
@@ -2768,8 +2801,41 @@
       <c r="J19">
         <v>17.64</v>
       </c>
+      <c r="L19">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="M19">
+        <v>15.87</v>
+      </c>
+      <c r="N19">
+        <v>16.43</v>
+      </c>
       <c r="O19">
-        <v>16.899999999999999</v>
+        <v>17.64</v>
+      </c>
+      <c r="P19">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="Q19">
+        <v>16.04</v>
+      </c>
+      <c r="R19">
+        <v>15.98</v>
+      </c>
+      <c r="S19">
+        <v>15.37</v>
+      </c>
+      <c r="T19">
+        <v>16.25</v>
+      </c>
+      <c r="U19">
+        <v>15.56</v>
+      </c>
+      <c r="V19">
+        <v>15.03</v>
+      </c>
+      <c r="W19">
+        <v>14.34</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
@@ -2791,8 +2857,41 @@
       <c r="J20">
         <v>17.79</v>
       </c>
-      <c r="O20" s="4">
-        <v>17.04</v>
+      <c r="L20">
+        <v>16.62</v>
+      </c>
+      <c r="M20">
+        <v>16.03</v>
+      </c>
+      <c r="N20">
+        <v>16.46</v>
+      </c>
+      <c r="O20">
+        <v>17.79</v>
+      </c>
+      <c r="P20">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>16.16</v>
+      </c>
+      <c r="R20">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="S20">
+        <v>15.61</v>
+      </c>
+      <c r="T20">
+        <v>16.34</v>
+      </c>
+      <c r="U20">
+        <v>15.77</v>
+      </c>
+      <c r="V20">
+        <v>15.24</v>
+      </c>
+      <c r="W20">
+        <v>14.56</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.35">
@@ -2811,12 +2910,48 @@
       <c r="I21">
         <v>11.67</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>11.54</v>
       </c>
-      <c r="O21" s="3">
+      <c r="L21">
+        <v>11.15</v>
+      </c>
+      <c r="M21">
+        <v>10.94</v>
+      </c>
+      <c r="N21">
+        <v>11.08</v>
+      </c>
+      <c r="O21" s="4">
         <v>11.54</v>
       </c>
+      <c r="P21" s="4">
+        <v>11.28</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>11.03</v>
+      </c>
+      <c r="R21" s="4">
+        <v>11</v>
+      </c>
+      <c r="S21" s="4">
+        <v>10.73</v>
+      </c>
+      <c r="T21" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="V21" s="4">
+        <v>10.65</v>
+      </c>
+      <c r="W21" s="4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="W22" s="4"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
@@ -2834,11 +2969,44 @@
       <c r="I23">
         <v>21</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>17</v>
       </c>
+      <c r="L23">
+        <v>17</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
       <c r="O23">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="P23">
+        <v>17</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>9</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.35">
@@ -2857,11 +3025,44 @@
       <c r="I24">
         <v>64</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>67</v>
       </c>
+      <c r="L24">
+        <v>58</v>
+      </c>
+      <c r="M24">
+        <v>42</v>
+      </c>
+      <c r="N24">
+        <v>58</v>
+      </c>
       <c r="O24">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="P24">
+        <v>58</v>
+      </c>
+      <c r="Q24">
+        <v>55</v>
+      </c>
+      <c r="R24">
+        <v>46</v>
+      </c>
+      <c r="S24">
+        <v>27</v>
+      </c>
+      <c r="T24">
+        <v>55</v>
+      </c>
+      <c r="U24">
+        <v>36</v>
+      </c>
+      <c r="V24">
+        <v>27</v>
+      </c>
+      <c r="W24" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.35">
@@ -2880,11 +3081,44 @@
       <c r="I25">
         <v>82</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>92</v>
       </c>
+      <c r="L25">
+        <v>58</v>
+      </c>
+      <c r="M25">
+        <v>25</v>
+      </c>
+      <c r="N25">
+        <v>50</v>
+      </c>
       <c r="O25">
-        <v>73</v>
+        <v>92</v>
+      </c>
+      <c r="P25">
+        <v>67</v>
+      </c>
+      <c r="Q25">
+        <v>36</v>
+      </c>
+      <c r="R25">
+        <v>27</v>
+      </c>
+      <c r="S25">
+        <v>18</v>
+      </c>
+      <c r="T25">
+        <v>46</v>
+      </c>
+      <c r="U25">
+        <v>18</v>
+      </c>
+      <c r="V25">
+        <v>18</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.35">
@@ -2928,6 +3162,12 @@
       <c r="J28">
         <v>13.66</v>
       </c>
+      <c r="L28">
+        <v>13.89</v>
+      </c>
+      <c r="M28">
+        <v>13.95</v>
+      </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
@@ -2948,6 +3188,12 @@
       <c r="J29">
         <v>16.96</v>
       </c>
+      <c r="L29">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="M29">
+        <v>16.899999999999999</v>
+      </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
@@ -2968,6 +3214,12 @@
       <c r="J30">
         <v>16.7</v>
       </c>
+      <c r="L30">
+        <v>16.93</v>
+      </c>
+      <c r="M30">
+        <v>17.04</v>
+      </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
@@ -2988,8 +3240,14 @@
       <c r="J31">
         <v>11.27</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <v>11.35</v>
+      </c>
+      <c r="M31">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -3008,8 +3266,14 @@
       <c r="J33">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <v>18</v>
+      </c>
+      <c r="M33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>8</v>
       </c>
@@ -3028,8 +3292,14 @@
       <c r="J34">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <v>64</v>
+      </c>
+      <c r="M34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>9</v>
       </c>
@@ -3048,45 +3318,156 @@
       <c r="J35">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L35">
+        <v>73</v>
+      </c>
+      <c r="M35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>13.31</v>
+      </c>
+      <c r="G38">
+        <v>12.88</v>
+      </c>
+      <c r="H38">
+        <v>12.37</v>
+      </c>
+      <c r="I38">
+        <v>11.33</v>
+      </c>
+      <c r="J38">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>15.31</v>
+      </c>
+      <c r="G39">
+        <v>14.89</v>
+      </c>
+      <c r="H39">
+        <v>14.59</v>
+      </c>
+      <c r="I39">
+        <v>13.87</v>
+      </c>
+      <c r="J39">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>15.04</v>
+      </c>
+      <c r="G40">
+        <v>14.25</v>
+      </c>
+      <c r="H40">
+        <v>14.25</v>
+      </c>
+      <c r="I40">
+        <v>13.22</v>
+      </c>
+      <c r="J40">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>11.6</v>
+      </c>
+      <c r="G41">
+        <v>11.21</v>
+      </c>
+      <c r="H41">
+        <v>10.99</v>
+      </c>
+      <c r="I41">
+        <v>10.61</v>
+      </c>
+      <c r="J41">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>39</v>
+      </c>
+      <c r="G44">
+        <v>35</v>
+      </c>
+      <c r="H44">
+        <v>32</v>
+      </c>
+      <c r="I44">
+        <v>24</v>
+      </c>
+      <c r="J44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>9</v>
+      </c>
+      <c r="F45">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\deepak\github\mf-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D2B8D-0F46-4801-A8BD-1A405E486F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D4B4E4-9A14-490B-B86B-A9F824F69729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11320" yWindow="80" windowWidth="11240" windowHeight="14360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Method-1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="44">
   <si>
     <t>Weekly</t>
   </si>
@@ -142,6 +142,24 @@
   </si>
   <si>
     <t>Rebalance Yearly</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>SIP + Custom Rebalance (Yearly)</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>Variable</t>
   </si>
 </sst>
 </file>
@@ -474,12 +492,15 @@
   <dimension ref="B2:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
@@ -497,6 +518,12 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -505,6 +532,14 @@
       </c>
       <c r="I3">
         <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
@@ -908,7 +943,7 @@
       <c r="J21" s="3">
         <v>12.7</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>12.12</v>
       </c>
       <c r="M21">
@@ -964,7 +999,7 @@
       <c r="J23" s="3">
         <v>75</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>67</v>
       </c>
       <c r="M23">
@@ -1020,7 +1055,7 @@
       <c r="J24" s="3">
         <v>83</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>75</v>
       </c>
       <c r="M24">
@@ -1076,7 +1111,7 @@
       <c r="J25" s="3">
         <v>92</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>92</v>
       </c>
       <c r="M25">
@@ -1474,13 +1509,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EDC183-8E36-4E52-BDEB-2467C8F0426F}">
   <dimension ref="B2:W45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
@@ -1498,6 +1536,12 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -1506,6 +1550,14 @@
       </c>
       <c r="I3">
         <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
@@ -2478,13 +2530,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E14EE1-6D0D-4D21-AA56-5ED7A362180E}">
   <dimension ref="B2:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
@@ -2502,6 +2557,12 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -2510,6 +2571,14 @@
       </c>
       <c r="I3">
         <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
@@ -3477,15 +3546,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA03CAD-07CC-4101-9096-E1A6CDDCD707}">
-  <dimension ref="C2:O15"/>
+  <dimension ref="B2:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
@@ -3508,7 +3580,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -3522,7 +3600,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -3541,8 +3627,14 @@
       <c r="J7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -3561,8 +3653,14 @@
       <c r="J8">
         <v>16.75</v>
       </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -3582,7 +3680,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -3602,7 +3700,7 @@
         <v>21.08</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3720,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>6</v>
       </c>
@@ -3642,7 +3740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>8</v>
       </c>
@@ -3662,7 +3760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -3680,6 +3778,109 @@
       </c>
       <c r="J15" s="3">
         <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>14.59</v>
+      </c>
+      <c r="J19">
+        <v>15.47</v>
+      </c>
+      <c r="L19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="J20">
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>15.93</v>
+      </c>
+      <c r="J21">
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>11.98</v>
+      </c>
+      <c r="J22" s="4">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>56</v>
+      </c>
+      <c r="J24" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>94</v>
+      </c>
+      <c r="J25" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>91</v>
+      </c>
+      <c r="J26" s="4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
